--- a/biology/Zoologie/Aonyx/Aonyx.xlsx
+++ b/biology/Zoologie/Aonyx/Aonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loutres à joues blanches
 Les loutres à joues blanches (Aonyx) sont un genre de loutres de la famille des Mustélidés. Si la loutre du Cap ne se rencontre à l'état sauvage qu'en Afrique, la loutre cendrée, quant à elle, n'est présente qu'en Asie.
-Une espèce disparue (Aonyx antiqua) a vécu en Europe dont en France jusque dans le précédent interglaciaire[2]. Comme leur nom l'indique, ces loutres sont dépourvues de griffes. 
+Une espèce disparue (Aonyx antiqua) a vécu en Europe dont en France jusque dans le précédent interglaciaire. Comme leur nom l'indique, ces loutres sont dépourvues de griffes. 
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit pour la première fois en 1827 par le zoologiste français René Primevère Lesson (1794-1849).
-Ce genre est monophylétique et semble avoir une proche parenté avec les loutres américaines du genre Lontra[3].
-Il était traditionnellement composé de trois espèces, mais la loutre du Congo (anciennement Aonyx congicus Lönnberg, 1910) ne serait qu'une sous-espèce d'Aonyx capensis et le genre monotypique Amblonyx - où était classée l'espèce Amblonyx cinereus - est désormais considéré comme étant un synonyme[4].
+Ce genre est monophylétique et semble avoir une proche parenté avec les loutres américaines du genre Lontra.
+Il était traditionnellement composé de trois espèces, mais la loutre du Congo (anciennement Aonyx congicus Lönnberg, 1910) ne serait qu'une sous-espèce d'Aonyx capensis et le genre monotypique Amblonyx - où était classée l'espèce Amblonyx cinereus - est désormais considéré comme étant un synonyme.
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
